--- a/braph2genesis/pipelines/structural/example data ST (MRI)/xls/ST_group1.xlsx
+++ b/braph2genesis/pipelines/structural/example data ST (MRI)/xls/ST_group1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gunet-my.sharepoint.com/personal/yu-wei_chang_gu_se/Documents/ywc/projects/braph_example_data/Braph_ExampleData/Braph2format/Structural/example data ST (MRI)/xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_714D96F70E6B122D768D23A4ED012D16618E9DEB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FDDC4A6-E42D-48D1-914C-CE4F8D880C96}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_714DE997093691F4A37CAA7F858789D45F315E35" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16BA8802-9DCB-4663-98D8-CF1F2D956A1F}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="2540" windowWidth="14400" windowHeight="7270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,465 +21,696 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="378">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>sub_1</t>
+  </si>
+  <si>
+    <t>sub_2</t>
+  </si>
+  <si>
+    <t>sub_3</t>
+  </si>
+  <si>
+    <t>sub_4</t>
+  </si>
+  <si>
+    <t>sub_5</t>
+  </si>
+  <si>
+    <t>sub_6</t>
+  </si>
+  <si>
+    <t>sub_7</t>
+  </si>
+  <si>
+    <t>sub_8</t>
+  </si>
+  <si>
+    <t>sub_9</t>
+  </si>
+  <si>
+    <t>sub_10</t>
+  </si>
+  <si>
+    <t>sub_11</t>
+  </si>
+  <si>
+    <t>sub_12</t>
+  </si>
+  <si>
+    <t>sub_13</t>
+  </si>
+  <si>
+    <t>sub_14</t>
+  </si>
+  <si>
+    <t>sub_15</t>
+  </si>
+  <si>
+    <t>sub_16</t>
+  </si>
+  <si>
+    <t>sub_17</t>
+  </si>
+  <si>
+    <t>sub_18</t>
+  </si>
+  <si>
+    <t>sub_19</t>
+  </si>
+  <si>
+    <t>sub_20</t>
+  </si>
+  <si>
+    <t>sub_21</t>
+  </si>
+  <si>
+    <t>sub_22</t>
+  </si>
+  <si>
+    <t>sub_23</t>
+  </si>
+  <si>
+    <t>sub_24</t>
+  </si>
+  <si>
+    <t>sub_25</t>
+  </si>
+  <si>
+    <t>sub_26</t>
+  </si>
+  <si>
+    <t>sub_27</t>
+  </si>
+  <si>
+    <t>sub_28</t>
+  </si>
+  <si>
+    <t>sub_29</t>
+  </si>
+  <si>
+    <t>sub_30</t>
+  </si>
+  <si>
+    <t>sub_31</t>
+  </si>
+  <si>
+    <t>sub_32</t>
+  </si>
+  <si>
+    <t>sub_33</t>
+  </si>
+  <si>
+    <t>sub_34</t>
+  </si>
+  <si>
+    <t>sub_35</t>
+  </si>
+  <si>
+    <t>sub_36</t>
+  </si>
+  <si>
+    <t>sub_37</t>
+  </si>
+  <si>
+    <t>sub_38</t>
+  </si>
+  <si>
+    <t>sub_39</t>
+  </si>
+  <si>
+    <t>sub_40</t>
+  </si>
+  <si>
+    <t>sub_41</t>
+  </si>
+  <si>
+    <t>sub_42</t>
+  </si>
+  <si>
+    <t>sub_43</t>
+  </si>
+  <si>
+    <t>sub_44</t>
+  </si>
+  <si>
+    <t>sub_45</t>
+  </si>
+  <si>
+    <t>sub_46</t>
+  </si>
+  <si>
+    <t>sub_47</t>
+  </si>
+  <si>
+    <t>sub_48</t>
+  </si>
+  <si>
+    <t>sub_49</t>
+  </si>
+  <si>
+    <t>sub_50</t>
+  </si>
+  <si>
     <t>Label</t>
   </si>
   <si>
+    <t>Label 1</t>
+  </si>
+  <si>
+    <t>Label 2</t>
+  </si>
+  <si>
+    <t>Label 3</t>
+  </si>
+  <si>
+    <t>Label 4</t>
+  </si>
+  <si>
+    <t>Label 5</t>
+  </si>
+  <si>
+    <t>Label 6</t>
+  </si>
+  <si>
+    <t>Label 7</t>
+  </si>
+  <si>
+    <t>Label 8</t>
+  </si>
+  <si>
+    <t>Label 9</t>
+  </si>
+  <si>
+    <t>Label 10</t>
+  </si>
+  <si>
+    <t>Label 11</t>
+  </si>
+  <si>
+    <t>Label 12</t>
+  </si>
+  <si>
+    <t>Label 13</t>
+  </si>
+  <si>
+    <t>Label 14</t>
+  </si>
+  <si>
+    <t>Label 15</t>
+  </si>
+  <si>
+    <t>Label 16</t>
+  </si>
+  <si>
+    <t>Label 17</t>
+  </si>
+  <si>
+    <t>Label 18</t>
+  </si>
+  <si>
+    <t>Label 19</t>
+  </si>
+  <si>
+    <t>Label 20</t>
+  </si>
+  <si>
+    <t>Label 21</t>
+  </si>
+  <si>
+    <t>Label 22</t>
+  </si>
+  <si>
+    <t>Label 23</t>
+  </si>
+  <si>
+    <t>Label 24</t>
+  </si>
+  <si>
+    <t>Label 25</t>
+  </si>
+  <si>
+    <t>Label 26</t>
+  </si>
+  <si>
+    <t>Label 27</t>
+  </si>
+  <si>
+    <t>Label 28</t>
+  </si>
+  <si>
+    <t>Label 29</t>
+  </si>
+  <si>
+    <t>Label 30</t>
+  </si>
+  <si>
+    <t>Label 31</t>
+  </si>
+  <si>
+    <t>Label 32</t>
+  </si>
+  <si>
+    <t>Label 33</t>
+  </si>
+  <si>
+    <t>Label 34</t>
+  </si>
+  <si>
+    <t>Label 35</t>
+  </si>
+  <si>
+    <t>Label 36</t>
+  </si>
+  <si>
+    <t>Label 37</t>
+  </si>
+  <si>
+    <t>Label 38</t>
+  </si>
+  <si>
+    <t>Label 39</t>
+  </si>
+  <si>
+    <t>Label 40</t>
+  </si>
+  <si>
+    <t>Label 41</t>
+  </si>
+  <si>
+    <t>Label 42</t>
+  </si>
+  <si>
+    <t>Label 43</t>
+  </si>
+  <si>
+    <t>Label 44</t>
+  </si>
+  <si>
+    <t>Label 45</t>
+  </si>
+  <si>
+    <t>Label 46</t>
+  </si>
+  <si>
+    <t>Label 47</t>
+  </si>
+  <si>
+    <t>Label 48</t>
+  </si>
+  <si>
+    <t>Label 49</t>
+  </si>
+  <si>
+    <t>Label 50</t>
+  </si>
+  <si>
     <t>Notes</t>
   </si>
   <si>
+    <t>Note 1</t>
+  </si>
+  <si>
+    <t>Note 2</t>
+  </si>
+  <si>
+    <t>Note 3</t>
+  </si>
+  <si>
+    <t>Note 4</t>
+  </si>
+  <si>
+    <t>Note 5</t>
+  </si>
+  <si>
+    <t>Note 6</t>
+  </si>
+  <si>
+    <t>Note 7</t>
+  </si>
+  <si>
+    <t>Note 8</t>
+  </si>
+  <si>
+    <t>Note 9</t>
+  </si>
+  <si>
+    <t>Note 10</t>
+  </si>
+  <si>
+    <t>Note 11</t>
+  </si>
+  <si>
+    <t>Note 12</t>
+  </si>
+  <si>
+    <t>Note 13</t>
+  </si>
+  <si>
+    <t>Note 14</t>
+  </si>
+  <si>
+    <t>Note 15</t>
+  </si>
+  <si>
+    <t>Note 16</t>
+  </si>
+  <si>
+    <t>Note 17</t>
+  </si>
+  <si>
+    <t>Note 18</t>
+  </si>
+  <si>
+    <t>Note 19</t>
+  </si>
+  <si>
+    <t>Note 20</t>
+  </si>
+  <si>
+    <t>Note 21</t>
+  </si>
+  <si>
+    <t>Note 22</t>
+  </si>
+  <si>
+    <t>Note 23</t>
+  </si>
+  <si>
+    <t>Note 24</t>
+  </si>
+  <si>
+    <t>Note 25</t>
+  </si>
+  <si>
+    <t>Note 26</t>
+  </si>
+  <si>
+    <t>Note 27</t>
+  </si>
+  <si>
+    <t>Note 28</t>
+  </si>
+  <si>
+    <t>Note 29</t>
+  </si>
+  <si>
+    <t>Note 30</t>
+  </si>
+  <si>
+    <t>Note 31</t>
+  </si>
+  <si>
+    <t>Note 32</t>
+  </si>
+  <si>
+    <t>Note 33</t>
+  </si>
+  <si>
+    <t>Note 34</t>
+  </si>
+  <si>
+    <t>Note 35</t>
+  </si>
+  <si>
+    <t>Note 36</t>
+  </si>
+  <si>
+    <t>Note 37</t>
+  </si>
+  <si>
+    <t>Note 38</t>
+  </si>
+  <si>
+    <t>Note 39</t>
+  </si>
+  <si>
+    <t>Note 40</t>
+  </si>
+  <si>
+    <t>Note 41</t>
+  </si>
+  <si>
+    <t>Note 42</t>
+  </si>
+  <si>
+    <t>Note 43</t>
+  </si>
+  <si>
+    <t>Note 44</t>
+  </si>
+  <si>
+    <t>Note 45</t>
+  </si>
+  <si>
+    <t>Note 46</t>
+  </si>
+  <si>
+    <t>Note 47</t>
+  </si>
+  <si>
+    <t>Note 48</t>
+  </si>
+  <si>
+    <t>Note 49</t>
+  </si>
+  <si>
+    <t>Note 50</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>sub_1</t>
   </si>
   <si>
-    <t>Label 1</t>
-  </si>
-  <si>
-    <t>Notes 1</t>
-  </si>
-  <si>
     <t>sub_2</t>
   </si>
   <si>
-    <t>Label 2</t>
-  </si>
-  <si>
-    <t>Notes 2</t>
-  </si>
-  <si>
     <t>sub_3</t>
   </si>
   <si>
-    <t>Label 3</t>
-  </si>
-  <si>
-    <t>Notes 3</t>
-  </si>
-  <si>
     <t>sub_4</t>
   </si>
   <si>
-    <t>Label 4</t>
-  </si>
-  <si>
-    <t>Notes 4</t>
-  </si>
-  <si>
     <t>sub_5</t>
   </si>
   <si>
-    <t>Label 5</t>
-  </si>
-  <si>
-    <t>Notes 5</t>
-  </si>
-  <si>
     <t>sub_6</t>
   </si>
   <si>
-    <t>Label 6</t>
-  </si>
-  <si>
-    <t>Notes 6</t>
-  </si>
-  <si>
     <t>sub_7</t>
   </si>
   <si>
-    <t>Label 7</t>
-  </si>
-  <si>
-    <t>Notes 7</t>
-  </si>
-  <si>
     <t>sub_8</t>
   </si>
   <si>
-    <t>Label 8</t>
-  </si>
-  <si>
-    <t>Notes 8</t>
-  </si>
-  <si>
     <t>sub_9</t>
   </si>
   <si>
-    <t>Label 9</t>
-  </si>
-  <si>
-    <t>Notes 9</t>
-  </si>
-  <si>
     <t>sub_10</t>
   </si>
   <si>
-    <t>Label 10</t>
-  </si>
-  <si>
-    <t>Notes 10</t>
-  </si>
-  <si>
     <t>sub_11</t>
   </si>
   <si>
-    <t>Label 11</t>
-  </si>
-  <si>
-    <t>Notes 11</t>
-  </si>
-  <si>
     <t>sub_12</t>
   </si>
   <si>
-    <t>Label 12</t>
-  </si>
-  <si>
-    <t>Notes 12</t>
-  </si>
-  <si>
     <t>sub_13</t>
   </si>
   <si>
-    <t>Label 13</t>
-  </si>
-  <si>
-    <t>Notes 13</t>
-  </si>
-  <si>
     <t>sub_14</t>
   </si>
   <si>
-    <t>Label 14</t>
-  </si>
-  <si>
-    <t>Notes 14</t>
-  </si>
-  <si>
     <t>sub_15</t>
   </si>
   <si>
-    <t>Label 15</t>
-  </si>
-  <si>
-    <t>Notes 15</t>
-  </si>
-  <si>
     <t>sub_16</t>
   </si>
   <si>
-    <t>Label 16</t>
-  </si>
-  <si>
-    <t>Notes 16</t>
-  </si>
-  <si>
     <t>sub_17</t>
   </si>
   <si>
-    <t>Label 17</t>
-  </si>
-  <si>
-    <t>Notes 17</t>
-  </si>
-  <si>
     <t>sub_18</t>
   </si>
   <si>
-    <t>Label 18</t>
-  </si>
-  <si>
-    <t>Notes 18</t>
-  </si>
-  <si>
     <t>sub_19</t>
   </si>
   <si>
-    <t>Label 19</t>
-  </si>
-  <si>
-    <t>Notes 19</t>
-  </si>
-  <si>
     <t>sub_20</t>
   </si>
   <si>
-    <t>Label 20</t>
-  </si>
-  <si>
-    <t>Notes 20</t>
-  </si>
-  <si>
     <t>sub_21</t>
   </si>
   <si>
-    <t>Label 21</t>
-  </si>
-  <si>
-    <t>Notes 21</t>
-  </si>
-  <si>
     <t>sub_22</t>
   </si>
   <si>
-    <t>Label 22</t>
-  </si>
-  <si>
-    <t>Notes 22</t>
-  </si>
-  <si>
     <t>sub_23</t>
   </si>
   <si>
-    <t>Label 23</t>
-  </si>
-  <si>
-    <t>Notes 23</t>
-  </si>
-  <si>
     <t>sub_24</t>
   </si>
   <si>
-    <t>Label 24</t>
-  </si>
-  <si>
-    <t>Notes 24</t>
-  </si>
-  <si>
     <t>sub_25</t>
   </si>
   <si>
-    <t>Label 25</t>
-  </si>
-  <si>
-    <t>Notes 25</t>
-  </si>
-  <si>
     <t>sub_26</t>
   </si>
   <si>
-    <t>Label 26</t>
-  </si>
-  <si>
-    <t>Notes 26</t>
-  </si>
-  <si>
     <t>sub_27</t>
   </si>
   <si>
-    <t>Label 27</t>
-  </si>
-  <si>
-    <t>Notes 27</t>
-  </si>
-  <si>
     <t>sub_28</t>
   </si>
   <si>
-    <t>Label 28</t>
-  </si>
-  <si>
-    <t>Notes 28</t>
-  </si>
-  <si>
     <t>sub_29</t>
   </si>
   <si>
-    <t>Label 29</t>
-  </si>
-  <si>
-    <t>Notes 29</t>
-  </si>
-  <si>
     <t>sub_30</t>
   </si>
   <si>
-    <t>Label 30</t>
-  </si>
-  <si>
-    <t>Notes 30</t>
-  </si>
-  <si>
     <t>sub_31</t>
   </si>
   <si>
-    <t>Label 31</t>
-  </si>
-  <si>
-    <t>Notes 31</t>
-  </si>
-  <si>
     <t>sub_32</t>
   </si>
   <si>
-    <t>Label 32</t>
-  </si>
-  <si>
-    <t>Notes 32</t>
-  </si>
-  <si>
     <t>sub_33</t>
   </si>
   <si>
-    <t>Label 33</t>
-  </si>
-  <si>
-    <t>Notes 33</t>
-  </si>
-  <si>
     <t>sub_34</t>
   </si>
   <si>
-    <t>Label 34</t>
-  </si>
-  <si>
-    <t>Notes 34</t>
-  </si>
-  <si>
     <t>sub_35</t>
   </si>
   <si>
-    <t>Label 35</t>
-  </si>
-  <si>
-    <t>Notes 35</t>
-  </si>
-  <si>
     <t>sub_36</t>
   </si>
   <si>
-    <t>Label 36</t>
-  </si>
-  <si>
-    <t>Notes 36</t>
-  </si>
-  <si>
     <t>sub_37</t>
   </si>
   <si>
-    <t>Label 37</t>
-  </si>
-  <si>
-    <t>Notes 37</t>
-  </si>
-  <si>
     <t>sub_38</t>
   </si>
   <si>
-    <t>Label 38</t>
-  </si>
-  <si>
-    <t>Notes 38</t>
-  </si>
-  <si>
     <t>sub_39</t>
   </si>
   <si>
-    <t>Label 39</t>
-  </si>
-  <si>
-    <t>Notes 39</t>
-  </si>
-  <si>
     <t>sub_40</t>
   </si>
   <si>
-    <t>Label 40</t>
-  </si>
-  <si>
-    <t>Notes 40</t>
-  </si>
-  <si>
     <t>sub_41</t>
   </si>
   <si>
-    <t>Label 41</t>
-  </si>
-  <si>
-    <t>Notes 41</t>
-  </si>
-  <si>
     <t>sub_42</t>
   </si>
   <si>
-    <t>Label 42</t>
-  </si>
-  <si>
-    <t>Notes 42</t>
-  </si>
-  <si>
     <t>sub_43</t>
   </si>
   <si>
-    <t>Label 43</t>
-  </si>
-  <si>
-    <t>Notes 43</t>
-  </si>
-  <si>
     <t>sub_44</t>
   </si>
   <si>
-    <t>Label 44</t>
-  </si>
-  <si>
-    <t>Notes 44</t>
-  </si>
-  <si>
     <t>sub_45</t>
   </si>
   <si>
-    <t>Label 45</t>
-  </si>
-  <si>
-    <t>Notes 45</t>
-  </si>
-  <si>
     <t>sub_46</t>
   </si>
   <si>
-    <t>Label 46</t>
-  </si>
-  <si>
-    <t>Notes 46</t>
-  </si>
-  <si>
     <t>sub_47</t>
   </si>
   <si>
-    <t>Label 47</t>
-  </si>
-  <si>
-    <t>Notes 47</t>
-  </si>
-  <si>
     <t>sub_48</t>
   </si>
   <si>
-    <t>Label 48</t>
-  </si>
-  <si>
-    <t>Notes 48</t>
-  </si>
-  <si>
     <t>sub_49</t>
   </si>
   <si>
-    <t>Label 49</t>
-  </si>
-  <si>
-    <t>Notes 49</t>
-  </si>
-  <si>
     <t>sub_50</t>
   </si>
   <si>
-    <t>Label 50</t>
-  </si>
-  <si>
-    <t>Notes 50</t>
+    <t>age</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>edu</t>
   </si>
   <si>
     <t>lh_G_subcallosal_thickness</t>
@@ -924,39 +1155,16 @@
   </si>
   <si>
     <t>rh_S_collat_transv_post_thickness</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>edu</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -979,11 +1187,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1300,70 +1505,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EU51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:EU1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" customWidth="1"/>
-    <col min="2" max="3" width="11.7265625" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" customWidth="1"/>
-    <col min="5" max="7" width="11.7265625" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" customWidth="1"/>
-    <col min="9" max="14" width="11.7265625" customWidth="1"/>
-    <col min="15" max="16" width="12.7265625" customWidth="1"/>
-    <col min="17" max="17" width="11.7265625" customWidth="1"/>
+    <col min="1" max="1" width="7.1796875" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="7.6328125" customWidth="1"/>
+    <col min="4" max="6" width="11.7265625" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" customWidth="1"/>
+    <col min="8" max="10" width="11.7265625" customWidth="1"/>
+    <col min="11" max="11" width="12.7265625" customWidth="1"/>
+    <col min="12" max="17" width="11.7265625" customWidth="1"/>
     <col min="18" max="19" width="12.7265625" customWidth="1"/>
     <col min="20" max="20" width="11.7265625" customWidth="1"/>
     <col min="21" max="22" width="12.7265625" customWidth="1"/>
-    <col min="23" max="32" width="11.7265625" customWidth="1"/>
-    <col min="33" max="34" width="12.7265625" customWidth="1"/>
-    <col min="35" max="35" width="11.7265625" customWidth="1"/>
+    <col min="23" max="23" width="11.7265625" customWidth="1"/>
+    <col min="24" max="25" width="12.7265625" customWidth="1"/>
+    <col min="26" max="35" width="11.7265625" customWidth="1"/>
     <col min="36" max="37" width="12.7265625" customWidth="1"/>
-    <col min="38" max="40" width="11.7265625" customWidth="1"/>
-    <col min="41" max="43" width="12.7265625" customWidth="1"/>
-    <col min="44" max="45" width="11.7265625" customWidth="1"/>
-    <col min="46" max="51" width="12.7265625" customWidth="1"/>
-    <col min="52" max="55" width="11.7265625" customWidth="1"/>
-    <col min="56" max="56" width="12.7265625" customWidth="1"/>
-    <col min="57" max="61" width="11.7265625" customWidth="1"/>
-    <col min="62" max="62" width="12.7265625" customWidth="1"/>
-    <col min="63" max="71" width="11.7265625" customWidth="1"/>
-    <col min="72" max="74" width="12.7265625" customWidth="1"/>
-    <col min="75" max="75" width="11.7265625" customWidth="1"/>
-    <col min="76" max="76" width="12.7265625" customWidth="1"/>
-    <col min="77" max="80" width="11.7265625" customWidth="1"/>
-    <col min="81" max="81" width="12.7265625" customWidth="1"/>
-    <col min="82" max="82" width="11.7265625" customWidth="1"/>
-    <col min="83" max="83" width="12.7265625" customWidth="1"/>
-    <col min="84" max="84" width="11.7265625" customWidth="1"/>
-    <col min="85" max="85" width="12.7265625" customWidth="1"/>
-    <col min="86" max="92" width="11.7265625" customWidth="1"/>
-    <col min="93" max="93" width="12.7265625" customWidth="1"/>
-    <col min="94" max="95" width="11.7265625" customWidth="1"/>
+    <col min="38" max="38" width="11.7265625" customWidth="1"/>
+    <col min="39" max="40" width="12.7265625" customWidth="1"/>
+    <col min="41" max="43" width="11.7265625" customWidth="1"/>
+    <col min="44" max="46" width="12.7265625" customWidth="1"/>
+    <col min="47" max="48" width="11.7265625" customWidth="1"/>
+    <col min="49" max="54" width="12.7265625" customWidth="1"/>
+    <col min="55" max="58" width="11.7265625" customWidth="1"/>
+    <col min="59" max="59" width="12.7265625" customWidth="1"/>
+    <col min="60" max="64" width="11.7265625" customWidth="1"/>
+    <col min="65" max="65" width="12.7265625" customWidth="1"/>
+    <col min="66" max="74" width="11.7265625" customWidth="1"/>
+    <col min="75" max="77" width="12.7265625" customWidth="1"/>
+    <col min="78" max="78" width="11.7265625" customWidth="1"/>
+    <col min="79" max="79" width="12.7265625" customWidth="1"/>
+    <col min="80" max="83" width="11.7265625" customWidth="1"/>
+    <col min="84" max="84" width="12.7265625" customWidth="1"/>
+    <col min="85" max="85" width="11.7265625" customWidth="1"/>
+    <col min="86" max="86" width="12.7265625" customWidth="1"/>
+    <col min="87" max="87" width="11.7265625" customWidth="1"/>
+    <col min="88" max="88" width="12.7265625" customWidth="1"/>
+    <col min="89" max="95" width="11.7265625" customWidth="1"/>
     <col min="96" max="96" width="12.7265625" customWidth="1"/>
-    <col min="97" max="100" width="11.7265625" customWidth="1"/>
-    <col min="101" max="102" width="12.7265625" customWidth="1"/>
-    <col min="103" max="105" width="11.7265625" customWidth="1"/>
-    <col min="106" max="106" width="12.7265625" customWidth="1"/>
-    <col min="107" max="110" width="11.7265625" customWidth="1"/>
-    <col min="111" max="111" width="12.7265625" customWidth="1"/>
-    <col min="112" max="115" width="11.7265625" customWidth="1"/>
-    <col min="116" max="116" width="12.7265625" customWidth="1"/>
-    <col min="117" max="117" width="11.7265625" customWidth="1"/>
-    <col min="118" max="118" width="12.7265625" customWidth="1"/>
-    <col min="119" max="124" width="11.7265625" customWidth="1"/>
-    <col min="125" max="126" width="12.7265625" customWidth="1"/>
-    <col min="127" max="128" width="11.7265625" customWidth="1"/>
-    <col min="129" max="129" width="12.7265625" customWidth="1"/>
+    <col min="97" max="98" width="11.7265625" customWidth="1"/>
+    <col min="99" max="99" width="12.7265625" customWidth="1"/>
+    <col min="100" max="103" width="11.7265625" customWidth="1"/>
+    <col min="104" max="105" width="12.7265625" customWidth="1"/>
+    <col min="106" max="108" width="11.7265625" customWidth="1"/>
+    <col min="109" max="109" width="12.7265625" customWidth="1"/>
+    <col min="110" max="113" width="11.7265625" customWidth="1"/>
+    <col min="114" max="114" width="12.7265625" customWidth="1"/>
+    <col min="115" max="118" width="11.7265625" customWidth="1"/>
+    <col min="119" max="119" width="12.7265625" customWidth="1"/>
+    <col min="120" max="120" width="11.7265625" customWidth="1"/>
+    <col min="121" max="121" width="12.7265625" customWidth="1"/>
+    <col min="122" max="127" width="11.7265625" customWidth="1"/>
+    <col min="128" max="129" width="12.7265625" customWidth="1"/>
     <col min="130" max="131" width="11.7265625" customWidth="1"/>
-    <col min="132" max="133" width="12.7265625" customWidth="1"/>
-    <col min="134" max="137" width="11.7265625" customWidth="1"/>
-    <col min="138" max="138" width="12.7265625" customWidth="1"/>
-    <col min="139" max="145" width="11.7265625" customWidth="1"/>
-    <col min="146" max="146" width="12.7265625" customWidth="1"/>
-    <col min="147" max="148" width="11.7265625" customWidth="1"/>
+    <col min="132" max="132" width="12.7265625" customWidth="1"/>
+    <col min="133" max="134" width="11.7265625" customWidth="1"/>
+    <col min="135" max="136" width="12.7265625" customWidth="1"/>
+    <col min="137" max="140" width="11.7265625" customWidth="1"/>
+    <col min="141" max="141" width="12.7265625" customWidth="1"/>
+    <col min="142" max="148" width="11.7265625" customWidth="1"/>
+    <col min="149" max="149" width="12.7265625" customWidth="1"/>
+    <col min="150" max="151" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:151">
@@ -1371,465 +1578,465 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="D1" t="s">
-        <v>153</v>
+        <v>230</v>
       </c>
       <c r="E1" t="s">
-        <v>154</v>
+        <v>231</v>
       </c>
       <c r="F1" t="s">
-        <v>155</v>
+        <v>232</v>
       </c>
       <c r="G1" t="s">
-        <v>156</v>
+        <v>233</v>
       </c>
       <c r="H1" t="s">
-        <v>157</v>
+        <v>234</v>
       </c>
       <c r="I1" t="s">
-        <v>158</v>
+        <v>235</v>
       </c>
       <c r="J1" t="s">
-        <v>159</v>
+        <v>236</v>
       </c>
       <c r="K1" t="s">
-        <v>160</v>
+        <v>237</v>
       </c>
       <c r="L1" t="s">
-        <v>161</v>
+        <v>238</v>
       </c>
       <c r="M1" t="s">
-        <v>162</v>
+        <v>239</v>
       </c>
       <c r="N1" t="s">
-        <v>163</v>
+        <v>240</v>
       </c>
       <c r="O1" t="s">
-        <v>164</v>
+        <v>241</v>
       </c>
       <c r="P1" t="s">
-        <v>165</v>
+        <v>242</v>
       </c>
       <c r="Q1" t="s">
-        <v>166</v>
+        <v>243</v>
       </c>
       <c r="R1" t="s">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="S1" t="s">
-        <v>168</v>
+        <v>245</v>
       </c>
       <c r="T1" t="s">
-        <v>169</v>
+        <v>246</v>
       </c>
       <c r="U1" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="V1" t="s">
-        <v>171</v>
+        <v>248</v>
       </c>
       <c r="W1" t="s">
-        <v>172</v>
+        <v>249</v>
       </c>
       <c r="X1" t="s">
-        <v>173</v>
+        <v>250</v>
       </c>
       <c r="Y1" t="s">
-        <v>174</v>
+        <v>251</v>
       </c>
       <c r="Z1" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="AA1" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="AB1" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="AC1" t="s">
-        <v>178</v>
+        <v>255</v>
       </c>
       <c r="AD1" t="s">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="AE1" t="s">
-        <v>180</v>
+        <v>257</v>
       </c>
       <c r="AF1" t="s">
-        <v>181</v>
+        <v>258</v>
       </c>
       <c r="AG1" t="s">
-        <v>182</v>
+        <v>259</v>
       </c>
       <c r="AH1" t="s">
-        <v>183</v>
+        <v>260</v>
       </c>
       <c r="AI1" t="s">
-        <v>184</v>
+        <v>261</v>
       </c>
       <c r="AJ1" t="s">
-        <v>185</v>
+        <v>262</v>
       </c>
       <c r="AK1" t="s">
-        <v>186</v>
+        <v>263</v>
       </c>
       <c r="AL1" t="s">
-        <v>187</v>
+        <v>264</v>
       </c>
       <c r="AM1" t="s">
-        <v>188</v>
+        <v>265</v>
       </c>
       <c r="AN1" t="s">
-        <v>189</v>
+        <v>266</v>
       </c>
       <c r="AO1" t="s">
-        <v>190</v>
+        <v>267</v>
       </c>
       <c r="AP1" t="s">
-        <v>191</v>
+        <v>268</v>
       </c>
       <c r="AQ1" t="s">
-        <v>192</v>
+        <v>269</v>
       </c>
       <c r="AR1" t="s">
-        <v>193</v>
+        <v>270</v>
       </c>
       <c r="AS1" t="s">
-        <v>194</v>
+        <v>271</v>
       </c>
       <c r="AT1" t="s">
-        <v>195</v>
+        <v>272</v>
       </c>
       <c r="AU1" t="s">
-        <v>196</v>
+        <v>273</v>
       </c>
       <c r="AV1" t="s">
-        <v>197</v>
+        <v>274</v>
       </c>
       <c r="AW1" t="s">
-        <v>198</v>
+        <v>275</v>
       </c>
       <c r="AX1" t="s">
-        <v>199</v>
+        <v>276</v>
       </c>
       <c r="AY1" t="s">
-        <v>200</v>
+        <v>277</v>
       </c>
       <c r="AZ1" t="s">
-        <v>201</v>
+        <v>278</v>
       </c>
       <c r="BA1" t="s">
-        <v>202</v>
+        <v>279</v>
       </c>
       <c r="BB1" t="s">
-        <v>203</v>
+        <v>280</v>
       </c>
       <c r="BC1" t="s">
-        <v>204</v>
+        <v>281</v>
       </c>
       <c r="BD1" t="s">
-        <v>205</v>
+        <v>282</v>
       </c>
       <c r="BE1" t="s">
-        <v>206</v>
+        <v>283</v>
       </c>
       <c r="BF1" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
       <c r="BG1" t="s">
-        <v>208</v>
+        <v>285</v>
       </c>
       <c r="BH1" t="s">
-        <v>209</v>
+        <v>286</v>
       </c>
       <c r="BI1" t="s">
-        <v>210</v>
+        <v>287</v>
       </c>
       <c r="BJ1" t="s">
-        <v>211</v>
+        <v>288</v>
       </c>
       <c r="BK1" t="s">
-        <v>212</v>
+        <v>289</v>
       </c>
       <c r="BL1" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="BM1" t="s">
-        <v>214</v>
+        <v>291</v>
       </c>
       <c r="BN1" t="s">
-        <v>215</v>
+        <v>292</v>
       </c>
       <c r="BO1" t="s">
-        <v>216</v>
+        <v>293</v>
       </c>
       <c r="BP1" t="s">
-        <v>217</v>
+        <v>294</v>
       </c>
       <c r="BQ1" t="s">
-        <v>218</v>
+        <v>295</v>
       </c>
       <c r="BR1" t="s">
-        <v>219</v>
+        <v>296</v>
       </c>
       <c r="BS1" t="s">
-        <v>220</v>
+        <v>297</v>
       </c>
       <c r="BT1" t="s">
-        <v>221</v>
+        <v>298</v>
       </c>
       <c r="BU1" t="s">
-        <v>222</v>
+        <v>299</v>
       </c>
       <c r="BV1" t="s">
-        <v>223</v>
+        <v>300</v>
       </c>
       <c r="BW1" t="s">
-        <v>224</v>
+        <v>301</v>
       </c>
       <c r="BX1" t="s">
-        <v>225</v>
+        <v>302</v>
       </c>
       <c r="BY1" t="s">
-        <v>226</v>
+        <v>303</v>
       </c>
       <c r="BZ1" t="s">
-        <v>227</v>
+        <v>304</v>
       </c>
       <c r="CA1" t="s">
-        <v>228</v>
+        <v>305</v>
       </c>
       <c r="CB1" t="s">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="CC1" t="s">
-        <v>230</v>
+        <v>307</v>
       </c>
       <c r="CD1" t="s">
-        <v>231</v>
+        <v>308</v>
       </c>
       <c r="CE1" t="s">
-        <v>232</v>
+        <v>309</v>
       </c>
       <c r="CF1" t="s">
-        <v>233</v>
+        <v>310</v>
       </c>
       <c r="CG1" t="s">
-        <v>234</v>
+        <v>311</v>
       </c>
       <c r="CH1" t="s">
-        <v>235</v>
+        <v>312</v>
       </c>
       <c r="CI1" t="s">
-        <v>236</v>
+        <v>313</v>
       </c>
       <c r="CJ1" t="s">
-        <v>237</v>
+        <v>314</v>
       </c>
       <c r="CK1" t="s">
-        <v>238</v>
+        <v>315</v>
       </c>
       <c r="CL1" t="s">
-        <v>239</v>
+        <v>316</v>
       </c>
       <c r="CM1" t="s">
-        <v>240</v>
+        <v>317</v>
       </c>
       <c r="CN1" t="s">
-        <v>241</v>
+        <v>318</v>
       </c>
       <c r="CO1" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
       <c r="CP1" t="s">
-        <v>243</v>
+        <v>320</v>
       </c>
       <c r="CQ1" t="s">
-        <v>244</v>
+        <v>321</v>
       </c>
       <c r="CR1" t="s">
-        <v>245</v>
+        <v>322</v>
       </c>
       <c r="CS1" t="s">
-        <v>246</v>
+        <v>323</v>
       </c>
       <c r="CT1" t="s">
-        <v>247</v>
+        <v>324</v>
       </c>
       <c r="CU1" t="s">
-        <v>248</v>
+        <v>325</v>
       </c>
       <c r="CV1" t="s">
-        <v>249</v>
+        <v>326</v>
       </c>
       <c r="CW1" t="s">
-        <v>250</v>
+        <v>327</v>
       </c>
       <c r="CX1" t="s">
-        <v>251</v>
+        <v>328</v>
       </c>
       <c r="CY1" t="s">
-        <v>252</v>
+        <v>329</v>
       </c>
       <c r="CZ1" t="s">
-        <v>253</v>
+        <v>330</v>
       </c>
       <c r="DA1" t="s">
-        <v>254</v>
+        <v>331</v>
       </c>
       <c r="DB1" t="s">
-        <v>255</v>
+        <v>332</v>
       </c>
       <c r="DC1" t="s">
-        <v>256</v>
+        <v>333</v>
       </c>
       <c r="DD1" t="s">
-        <v>257</v>
+        <v>334</v>
       </c>
       <c r="DE1" t="s">
-        <v>258</v>
+        <v>335</v>
       </c>
       <c r="DF1" t="s">
-        <v>259</v>
+        <v>336</v>
       </c>
       <c r="DG1" t="s">
-        <v>260</v>
+        <v>337</v>
       </c>
       <c r="DH1" t="s">
-        <v>261</v>
+        <v>338</v>
       </c>
       <c r="DI1" t="s">
-        <v>262</v>
+        <v>339</v>
       </c>
       <c r="DJ1" t="s">
-        <v>263</v>
+        <v>340</v>
       </c>
       <c r="DK1" t="s">
-        <v>264</v>
+        <v>341</v>
       </c>
       <c r="DL1" t="s">
-        <v>265</v>
+        <v>342</v>
       </c>
       <c r="DM1" t="s">
-        <v>266</v>
+        <v>343</v>
       </c>
       <c r="DN1" t="s">
-        <v>267</v>
+        <v>344</v>
       </c>
       <c r="DO1" t="s">
-        <v>268</v>
+        <v>345</v>
       </c>
       <c r="DP1" t="s">
-        <v>269</v>
+        <v>346</v>
       </c>
       <c r="DQ1" t="s">
-        <v>270</v>
+        <v>347</v>
       </c>
       <c r="DR1" t="s">
-        <v>271</v>
+        <v>348</v>
       </c>
       <c r="DS1" t="s">
-        <v>272</v>
+        <v>349</v>
       </c>
       <c r="DT1" t="s">
-        <v>273</v>
+        <v>350</v>
       </c>
       <c r="DU1" t="s">
-        <v>274</v>
+        <v>351</v>
       </c>
       <c r="DV1" t="s">
-        <v>275</v>
+        <v>352</v>
       </c>
       <c r="DW1" t="s">
-        <v>276</v>
+        <v>353</v>
       </c>
       <c r="DX1" t="s">
-        <v>277</v>
+        <v>354</v>
       </c>
       <c r="DY1" t="s">
-        <v>278</v>
+        <v>355</v>
       </c>
       <c r="DZ1" t="s">
-        <v>279</v>
+        <v>356</v>
       </c>
       <c r="EA1" t="s">
-        <v>280</v>
+        <v>357</v>
       </c>
       <c r="EB1" t="s">
-        <v>281</v>
+        <v>358</v>
       </c>
       <c r="EC1" t="s">
-        <v>282</v>
+        <v>359</v>
       </c>
       <c r="ED1" t="s">
-        <v>283</v>
+        <v>360</v>
       </c>
       <c r="EE1" t="s">
-        <v>284</v>
+        <v>361</v>
       </c>
       <c r="EF1" t="s">
-        <v>285</v>
+        <v>362</v>
       </c>
       <c r="EG1" t="s">
-        <v>286</v>
+        <v>363</v>
       </c>
       <c r="EH1" t="s">
-        <v>287</v>
+        <v>364</v>
       </c>
       <c r="EI1" t="s">
-        <v>288</v>
+        <v>365</v>
       </c>
       <c r="EJ1" t="s">
-        <v>289</v>
+        <v>366</v>
       </c>
       <c r="EK1" t="s">
-        <v>290</v>
+        <v>367</v>
       </c>
       <c r="EL1" t="s">
-        <v>291</v>
+        <v>368</v>
       </c>
       <c r="EM1" t="s">
-        <v>292</v>
+        <v>369</v>
       </c>
       <c r="EN1" t="s">
-        <v>293</v>
+        <v>370</v>
       </c>
       <c r="EO1" t="s">
-        <v>294</v>
+        <v>371</v>
       </c>
       <c r="EP1" t="s">
-        <v>295</v>
+        <v>372</v>
       </c>
       <c r="EQ1" t="s">
-        <v>296</v>
+        <v>373</v>
       </c>
       <c r="ER1" t="s">
-        <v>297</v>
+        <v>374</v>
       </c>
       <c r="ES1" t="s">
-        <v>298</v>
+        <v>375</v>
       </c>
       <c r="ET1" t="s">
-        <v>299</v>
+        <v>376</v>
       </c>
       <c r="EU1" t="s">
-        <v>300</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:151">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="D2">
         <v>3.1984003294245156</v>
@@ -2278,13 +2485,13 @@
     </row>
     <row r="3" spans="1:151">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="D3">
         <v>3.5095435398943424</v>
@@ -2733,13 +2940,13 @@
     </row>
     <row r="4" spans="1:151">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="D4">
         <v>3.5804112950854323</v>
@@ -3188,13 +3395,13 @@
     </row>
     <row r="5" spans="1:151">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D5">
         <v>4.8469131621466151</v>
@@ -3643,13 +3850,13 @@
     </row>
     <row r="6" spans="1:151">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="D6">
         <v>3.0635399354057471</v>
@@ -4098,13 +4305,13 @@
     </row>
     <row r="7" spans="1:151">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="D7">
         <v>4.0414140826178482</v>
@@ -4553,13 +4760,13 @@
     </row>
     <row r="8" spans="1:151">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="D8">
         <v>3.7662925202622723</v>
@@ -5008,13 +5215,13 @@
     </row>
     <row r="9" spans="1:151">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="D9">
         <v>2.7922904412024949</v>
@@ -5463,13 +5670,13 @@
     </row>
     <row r="10" spans="1:151">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="D10">
         <v>2.6478521108286177</v>
@@ -5918,13 +6125,13 @@
     </row>
     <row r="11" spans="1:151">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="D11">
         <v>2.0970806361674477</v>
@@ -6373,13 +6580,13 @@
     </row>
     <row r="12" spans="1:151">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="D12">
         <v>3.5605933021142198</v>
@@ -6828,13 +7035,13 @@
     </row>
     <row r="13" spans="1:151">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="D13">
         <v>4.3575661175200704</v>
@@ -7283,13 +7490,13 @@
     </row>
     <row r="14" spans="1:151">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="D14">
         <v>3.3888154251684561</v>
@@ -7738,13 +7945,13 @@
     </row>
     <row r="15" spans="1:151">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="D15">
         <v>1.5634396854844133</v>
@@ -8193,13 +8400,13 @@
     </row>
     <row r="16" spans="1:151">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="D16">
         <v>1.8357228080375165</v>
@@ -8648,13 +8855,13 @@
     </row>
     <row r="17" spans="1:151">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="D17">
         <v>1.6061902001386881</v>
@@ -9103,13 +9310,13 @@
     </row>
     <row r="18" spans="1:151">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="D18">
         <v>2.6248033078634023</v>
@@ -9558,13 +9765,13 @@
     </row>
     <row r="19" spans="1:151">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="D19">
         <v>3.8477397131334001</v>
@@ -10013,13 +10220,13 @@
     </row>
     <row r="20" spans="1:151">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="D20">
         <v>3.1157041729976522</v>
@@ -10468,13 +10675,13 @@
     </row>
     <row r="21" spans="1:151">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="D21">
         <v>1.4541176377743414</v>
@@ -10923,13 +11130,13 @@
     </row>
     <row r="22" spans="1:151">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="D22">
         <v>2.9126221521684035</v>
@@ -11378,13 +11585,13 @@
     </row>
     <row r="23" spans="1:151">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="D23">
         <v>3.6262580982526056</v>
@@ -11833,13 +12040,13 @@
     </row>
     <row r="24" spans="1:151">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="D24">
         <v>5.0488332456812826</v>
@@ -12288,13 +12495,13 @@
     </row>
     <row r="25" spans="1:151">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="D25">
         <v>4.9531235083987237</v>
@@ -12743,13 +12950,13 @@
     </row>
     <row r="26" spans="1:151">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="D26">
         <v>1.7886156149437897</v>
@@ -13198,13 +13405,13 @@
     </row>
     <row r="27" spans="1:151">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="D27">
         <v>3.0165159531802939</v>
@@ -13653,13 +13860,13 @@
     </row>
     <row r="28" spans="1:151">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="D28">
         <v>2.6484517013811315</v>
@@ -14108,13 +14315,13 @@
     </row>
     <row r="29" spans="1:151">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="D29">
         <v>4.537505363186531</v>
@@ -14563,13 +14770,13 @@
     </row>
     <row r="30" spans="1:151">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="D30">
         <v>4.9596224945413709</v>
@@ -15018,13 +15225,13 @@
     </row>
     <row r="31" spans="1:151">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="D31">
         <v>3.383629860436379</v>
@@ -15473,13 +15680,13 @@
     </row>
     <row r="32" spans="1:151">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="D32">
         <v>2.7146210138411133</v>
@@ -15928,13 +16135,13 @@
     </row>
     <row r="33" spans="1:151">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="D33">
         <v>3.0918195957716272</v>
@@ -16383,13 +16590,13 @@
     </row>
     <row r="34" spans="1:151">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="D34">
         <v>3.4640454189991905</v>
@@ -16838,13 +17045,13 @@
     </row>
     <row r="35" spans="1:151">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D35">
         <v>4.1455734455550157</v>
@@ -17293,13 +17500,13 @@
     </row>
     <row r="36" spans="1:151">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="D36">
         <v>3.906630548476302</v>
@@ -17748,13 +17955,13 @@
     </row>
     <row r="37" spans="1:151">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="D37">
         <v>1.8772462319453254</v>
@@ -18203,13 +18410,13 @@
     </row>
     <row r="38" spans="1:151">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="D38">
         <v>1.9244861581216297</v>
@@ -18658,13 +18865,13 @@
     </row>
     <row r="39" spans="1:151">
       <c r="A39" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D39">
         <v>3.83187145992067</v>
@@ -19113,13 +19320,13 @@
     </row>
     <row r="40" spans="1:151">
       <c r="A40" t="s">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C40" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="D40">
         <v>3.1528492549091109</v>
@@ -19568,13 +19775,13 @@
     </row>
     <row r="41" spans="1:151">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="D41">
         <v>1.6792890081138585</v>
@@ -20023,13 +20230,13 @@
     </row>
     <row r="42" spans="1:151">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="D42">
         <v>4.5245542573162014</v>
@@ -20478,13 +20685,13 @@
     </row>
     <row r="43" spans="1:151">
       <c r="A43" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D43">
         <v>3.1271229425810065</v>
@@ -20933,13 +21140,13 @@
     </row>
     <row r="44" spans="1:151">
       <c r="A44" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="C44" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="D44">
         <v>4.8667657581942079</v>
@@ -21388,13 +21595,13 @@
     </row>
     <row r="45" spans="1:151">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D45">
         <v>2.9255396074270514</v>
@@ -21843,13 +22050,13 @@
     </row>
     <row r="46" spans="1:151">
       <c r="A46" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D46">
         <v>3.9036670202971608</v>
@@ -22298,13 +22505,13 @@
     </row>
     <row r="47" spans="1:151">
       <c r="A47" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D47">
         <v>3.9283611918159145</v>
@@ -22753,13 +22960,13 @@
     </row>
     <row r="48" spans="1:151">
       <c r="A48" t="s">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D48">
         <v>3.8002249402125443</v>
@@ -23208,13 +23415,13 @@
     </row>
     <row r="49" spans="1:151">
       <c r="A49" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D49">
         <v>5.1028848526090602</v>
@@ -23663,13 +23870,13 @@
     </row>
     <row r="50" spans="1:151">
       <c r="A50" t="s">
-        <v>147</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D50">
         <v>3.7770393422253075</v>
@@ -24118,10 +24325,10 @@
     </row>
     <row r="51" spans="1:151">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="C51" t="s">
         <v>152</v>
@@ -24577,262 +24784,266 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFA3CFB-0BA9-4FEF-8F70-91165C7232C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="7.1796875" customWidth="1"/>
+    <col min="2" max="2" width="4.08984375" customWidth="1"/>
+    <col min="3" max="3" width="7.1796875" customWidth="1"/>
+    <col min="4" max="4" width="4.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>303</v>
+      <c r="A1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>154</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>155</v>
       </c>
       <c r="B3">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>156</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>304</v>
+        <v>207</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5">
         <v>12</v>
-      </c>
-      <c r="B5">
-        <v>78</v>
-      </c>
-      <c r="C5" t="s">
-        <v>305</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="B6">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>304</v>
+        <v>207</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="B7">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>304</v>
+        <v>207</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="B8">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>305</v>
+        <v>208</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>305</v>
+        <v>209</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="B10">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>305</v>
+        <v>210</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="B11">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>305</v>
+        <v>211</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="B12">
         <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>304</v>
+        <v>212</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="B13">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>304</v>
+        <v>212</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="B14">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>304</v>
+        <v>213</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="B15">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>305</v>
+        <v>213</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="B16">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>305</v>
+        <v>213</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="B17">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>305</v>
+        <v>213</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18">
         <v>51</v>
       </c>
-      <c r="B18">
-        <v>78</v>
-      </c>
       <c r="C18" t="s">
-        <v>305</v>
+        <v>214</v>
       </c>
       <c r="D18">
         <v>10</v>
@@ -24840,55 +25051,55 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>171</v>
       </c>
       <c r="B19">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>304</v>
+        <v>214</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>172</v>
       </c>
       <c r="B20">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>305</v>
+        <v>214</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
       <c r="B21">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>305</v>
+        <v>214</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>174</v>
       </c>
       <c r="B22">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>304</v>
+        <v>214</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -24896,181 +25107,181 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>175</v>
       </c>
       <c r="B23">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>305</v>
+        <v>215</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>176</v>
       </c>
       <c r="B24">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>304</v>
+        <v>216</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="B25">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>304</v>
+        <v>217</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="B26">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>305</v>
+        <v>217</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="B27">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>305</v>
+        <v>217</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="B28">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>305</v>
+        <v>217</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="B29">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>305</v>
+        <v>218</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>182</v>
       </c>
       <c r="B30">
         <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>304</v>
+        <v>219</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="B31">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="B32">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>304</v>
+        <v>220</v>
       </c>
       <c r="D32">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>185</v>
       </c>
       <c r="B33">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="D33">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>186</v>
       </c>
       <c r="B34">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>305</v>
+        <v>221</v>
       </c>
       <c r="D34">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="B35">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>305</v>
+        <v>221</v>
       </c>
       <c r="D35">
         <v>7</v>
@@ -25078,27 +25289,27 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>188</v>
       </c>
       <c r="B36">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>305</v>
+        <v>222</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="B37">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>305</v>
+        <v>222</v>
       </c>
       <c r="D37">
         <v>7</v>
@@ -25106,167 +25317,167 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="B38">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>305</v>
+        <v>223</v>
       </c>
       <c r="D38">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>114</v>
+        <v>191</v>
       </c>
       <c r="B39">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>304</v>
+        <v>223</v>
       </c>
       <c r="D39">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>117</v>
+        <v>192</v>
       </c>
       <c r="B40">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>305</v>
+        <v>223</v>
       </c>
       <c r="D40">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="B41">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>304</v>
+        <v>224</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>194</v>
       </c>
       <c r="B42">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
-        <v>305</v>
+        <v>224</v>
       </c>
       <c r="D42">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>126</v>
+        <v>195</v>
       </c>
       <c r="B43">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C43" t="s">
-        <v>304</v>
+        <v>224</v>
       </c>
       <c r="D43">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c r="B44">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>304</v>
+        <v>225</v>
       </c>
       <c r="D44">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>197</v>
       </c>
       <c r="B45">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C45" t="s">
-        <v>304</v>
+        <v>226</v>
       </c>
       <c r="D45">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>135</v>
+        <v>198</v>
       </c>
       <c r="B46">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>304</v>
+        <v>226</v>
       </c>
       <c r="D46">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="B47">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>305</v>
+        <v>227</v>
       </c>
       <c r="D47">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="B48">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>304</v>
+        <v>227</v>
       </c>
       <c r="D48">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="B49">
         <v>77</v>
       </c>
       <c r="C49" t="s">
-        <v>305</v>
+        <v>227</v>
       </c>
       <c r="D49">
         <v>10</v>
@@ -25274,30 +25485,30 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>147</v>
+        <v>202</v>
       </c>
       <c r="B50">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>304</v>
+        <v>228</v>
       </c>
       <c r="D50">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="B51">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>305</v>
+        <v>228</v>
       </c>
       <c r="D51">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/braph2genesis/pipelines/structural/example data ST (MRI)/xls/ST_group1.xlsx
+++ b/braph2genesis/pipelines/structural/example data ST (MRI)/xls/ST_group1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gunet-my.sharepoint.com/personal/yu-wei_chang_gu_se/Documents/ywc/projects/braph_example_data/Braph_ExampleData/Braph2format/Structural/example data ST (MRI)/xls/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hejyu\Documents\GitHub\BRAPH-2-Matlab\braph2genesis\pipelines\structural\example data ST (MRI)\scripts_to_generate_this_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_714DE997093691F4A37CAA7F858789D45F315E35" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16BA8802-9DCB-4663-98D8-CF1F2D956A1F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C63ABC4-F9A1-4375-ACE9-275B8E25BFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1506,7 +1506,7 @@
   <dimension ref="A1:EU51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
